--- a/medicine/Hématologie/Hémopathie_maligne/Hémopathie_maligne.xlsx
+++ b/medicine/Hématologie/Hémopathie_maligne/Hémopathie_maligne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9mopathie_maligne</t>
+          <t>Hémopathie_maligne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une hémopathie maligne est un cancer des tissus hématopoïétiques caractérisé par un trouble de la multiplication et de la différenciation des cellules d’une lignée sanguine. C'est un synonyme de l'expression ancienne « cancer du sang ». Les tissus hématopoïétique se trouvent dans la moelle osseuse, dans la rate et dans le thymus.
 On classe ainsi les hémopathies malignes en :
